--- a/Code/Results/Cases/Case_2_119/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_119/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.87351010544118</v>
+        <v>9.258916175188528</v>
       </c>
       <c r="C2">
-        <v>9.143991750992909</v>
+        <v>5.440462225162122</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>29.40150030322594</v>
+        <v>16.4334201268971</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>27.48843520149786</v>
+        <v>30.99461872526152</v>
       </c>
       <c r="H2">
-        <v>9.744274631976268</v>
+        <v>14.74971678999694</v>
       </c>
       <c r="I2">
-        <v>14.53246139060337</v>
+        <v>21.17683375297929</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.87606953709762</v>
+        <v>9.236828046466716</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.97119233212126</v>
+        <v>8.92679331772303</v>
       </c>
       <c r="C3">
-        <v>8.544569894662555</v>
+        <v>5.134884828657177</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.25468545543871</v>
+        <v>15.50512914951802</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>26.90061324922928</v>
+        <v>31.0175067838662</v>
       </c>
       <c r="H3">
-        <v>9.80270885346053</v>
+        <v>14.80764593051684</v>
       </c>
       <c r="I3">
-        <v>14.68919623622801</v>
+        <v>21.28059472904867</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.09410422760808</v>
+        <v>9.004434903847605</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.38702280180928</v>
+        <v>8.718203778278932</v>
       </c>
       <c r="C4">
-        <v>8.158302262679515</v>
+        <v>4.936747720004851</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>25.87530481230603</v>
+        <v>14.91084546013573</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>26.58513762204941</v>
+        <v>31.04507282986189</v>
       </c>
       <c r="H4">
-        <v>9.848806333409458</v>
+        <v>14.84641504118384</v>
       </c>
       <c r="I4">
-        <v>14.80307863460401</v>
+        <v>21.34961050321206</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.58999611398382</v>
+        <v>8.860603488149579</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.14134612070899</v>
+        <v>8.632167013351271</v>
       </c>
       <c r="C5">
-        <v>7.99627014497482</v>
+        <v>4.853387736614263</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.29744253974762</v>
+        <v>14.66282873928581</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>26.46760783383453</v>
+        <v>31.059679292841</v>
       </c>
       <c r="H5">
-        <v>9.870004406812033</v>
+        <v>14.86301583165411</v>
       </c>
       <c r="I5">
-        <v>14.85362220413897</v>
+        <v>21.37906361064209</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.37853805050308</v>
+        <v>8.801794795587121</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.1000902371666</v>
+        <v>8.617822463206073</v>
       </c>
       <c r="C6">
-        <v>7.969084432891544</v>
+        <v>4.839388666147411</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.20052748890244</v>
+        <v>14.62130193024104</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>26.4487455828722</v>
+        <v>31.06230762341697</v>
       </c>
       <c r="H6">
-        <v>9.87366566275402</v>
+        <v>14.86582074399073</v>
       </c>
       <c r="I6">
-        <v>14.8622563051699</v>
+        <v>21.3840343579081</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.34306175155879</v>
+        <v>8.792020532492135</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.383740434458</v>
+        <v>8.717047454355546</v>
       </c>
       <c r="C7">
-        <v>8.156135816992123</v>
+        <v>4.935634057496239</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25.86757580010211</v>
+        <v>14.90752387342068</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>26.58350848212686</v>
+        <v>31.0452561955862</v>
       </c>
       <c r="H7">
-        <v>9.849082648319131</v>
+        <v>14.8466356813557</v>
       </c>
       <c r="I7">
-        <v>14.80374392065502</v>
+        <v>21.3500023461065</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.5871687189627</v>
+        <v>8.859811045354915</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.56861776591241</v>
+        <v>9.145447283299962</v>
       </c>
       <c r="C8">
-        <v>8.941063452684658</v>
+        <v>5.337294188863268</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>28.67376325057854</v>
+        <v>16.11853800994067</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>27.27609599735349</v>
+        <v>30.99969203256501</v>
       </c>
       <c r="H8">
-        <v>9.76220484917072</v>
+        <v>14.76902489560895</v>
       </c>
       <c r="I8">
-        <v>14.58265243084858</v>
+        <v>21.21150584602047</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.61141878797155</v>
+        <v>9.156988893202399</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.65548591602465</v>
+        <v>9.943107946325384</v>
       </c>
       <c r="C9">
-        <v>10.33822610832627</v>
+        <v>6.040724438320705</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>33.7084468868102</v>
+        <v>18.35640402472106</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>29.01033636429867</v>
+        <v>31.01850795970317</v>
       </c>
       <c r="H9">
-        <v>9.680416643850021</v>
+        <v>14.64234479719333</v>
       </c>
       <c r="I9">
-        <v>14.30384389098138</v>
+        <v>20.98227052661071</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.43066200364117</v>
+        <v>9.726930725718466</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.04862210445891</v>
+        <v>10.49691408335786</v>
       </c>
       <c r="C10">
-        <v>11.28232708788884</v>
+        <v>6.505436048243415</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>37.14904729242949</v>
+        <v>19.99034357474723</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>30.53231984893371</v>
+        <v>31.09933297816438</v>
       </c>
       <c r="H10">
-        <v>9.6853714565</v>
+        <v>14.5649927336569</v>
       </c>
       <c r="I10">
-        <v>14.21544243202708</v>
+        <v>20.84002347913778</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.65436343232452</v>
+        <v>10.13314365927513</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.65309210880389</v>
+        <v>10.74074820632179</v>
       </c>
       <c r="C11">
-        <v>11.69507591125428</v>
+        <v>6.70544981628128</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>38.66504090880204</v>
+        <v>20.69180957737874</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>31.28207941776382</v>
+        <v>31.15079974870119</v>
       </c>
       <c r="H11">
-        <v>9.704359238327932</v>
+        <v>14.53325227682818</v>
       </c>
       <c r="I11">
-        <v>14.20583241328683</v>
+        <v>20.78107120348628</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.1873966320146</v>
+        <v>10.31433099398112</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.87788496029385</v>
+        <v>10.83184017971648</v>
       </c>
       <c r="C12">
-        <v>11.84907880452961</v>
+        <v>6.779548876126569</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>39.23269705751671</v>
+        <v>20.95145958777231</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>31.57454127214649</v>
+        <v>31.17240863443853</v>
       </c>
       <c r="H12">
-        <v>9.714187896011332</v>
+        <v>14.52173168712813</v>
       </c>
       <c r="I12">
-        <v>14.20707229084222</v>
+        <v>20.75958178901806</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.38593321275945</v>
+        <v>10.38235741705107</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.82965267684749</v>
+        <v>10.81227831099759</v>
       </c>
       <c r="C13">
-        <v>11.81601174351728</v>
+        <v>6.763663386685812</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>39.1107162967122</v>
+        <v>20.89580473411704</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>31.51116946629958</v>
+        <v>31.16766045693994</v>
       </c>
       <c r="H13">
-        <v>9.711949933799405</v>
+        <v>14.52419061718883</v>
       </c>
       <c r="I13">
-        <v>14.2065803435236</v>
+        <v>20.76417269496173</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.34332052905641</v>
+        <v>10.36773375561107</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.67166762487564</v>
+        <v>10.74826771903131</v>
       </c>
       <c r="C14">
-        <v>11.70779115971811</v>
+        <v>6.711578913023986</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>38.71186691083099</v>
+        <v>20.71329079345365</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>31.30596743778668</v>
+        <v>31.15253502687822</v>
       </c>
       <c r="H14">
-        <v>9.705113592543437</v>
+        <v>14.5322944558883</v>
       </c>
       <c r="I14">
-        <v>14.20583379440987</v>
+        <v>20.7792864923623</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.20379616752342</v>
+        <v>10.31993966545288</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.57436565578282</v>
+        <v>10.70889537993276</v>
       </c>
       <c r="C15">
-        <v>11.64120740498545</v>
+        <v>6.679461759896875</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>38.46674512744689</v>
+        <v>20.60071797270846</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>31.18139701371348</v>
+        <v>31.14354639530995</v>
       </c>
       <c r="H15">
-        <v>9.701276853738241</v>
+        <v>14.53732334576613</v>
       </c>
       <c r="I15">
-        <v>14.20602658655055</v>
+        <v>20.78865301137028</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.11790506900258</v>
+        <v>10.29058627611805</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.00853799683904</v>
+        <v>10.48080910347944</v>
       </c>
       <c r="C16">
-        <v>11.2550253833992</v>
+        <v>6.49213512503735</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>37.04903816625725</v>
+        <v>19.94366247413125</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>30.48450063108448</v>
+        <v>31.09626587577805</v>
       </c>
       <c r="H16">
-        <v>9.684486820354898</v>
+        <v>14.5671366827049</v>
       </c>
       <c r="I16">
-        <v>14.21672651239226</v>
+        <v>20.84399256163093</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.61905995302868</v>
+        <v>10.12122428477579</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.65399243251625</v>
+        <v>10.33875303900493</v>
       </c>
       <c r="C17">
-        <v>11.01390403066965</v>
+        <v>6.374296136719682</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>36.16716871210095</v>
+        <v>19.52989296775868</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>30.07187909538141</v>
+        <v>31.07103100399868</v>
       </c>
       <c r="H17">
-        <v>9.678633515921229</v>
+        <v>14.58631136658815</v>
       </c>
       <c r="I17">
-        <v>14.23146001456661</v>
+        <v>20.87942076848974</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.30703821006045</v>
+        <v>10.01635411209758</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.44730486065628</v>
+        <v>10.25628823512803</v>
       </c>
       <c r="C18">
-        <v>10.87363554907239</v>
+        <v>6.305446684408095</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>35.65527074965583</v>
+        <v>19.28796526047643</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>29.83993509453949</v>
+        <v>31.05790002171323</v>
       </c>
       <c r="H18">
-        <v>9.676827224137377</v>
+        <v>14.59766443629974</v>
       </c>
       <c r="I18">
-        <v>14.242784521916</v>
+        <v>20.90033956952372</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.12534077460194</v>
+        <v>9.955700300529628</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.3768466320143</v>
+        <v>10.22823945917488</v>
       </c>
       <c r="C19">
-        <v>10.82586827694379</v>
+        <v>6.281951573523608</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>35.48113034201546</v>
+        <v>19.20537522934778</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>29.7623192303225</v>
+        <v>31.05369146261555</v>
       </c>
       <c r="H19">
-        <v>9.676476787505845</v>
+        <v>14.60156399468826</v>
       </c>
       <c r="I19">
-        <v>14.24709423567433</v>
+        <v>20.90751510353936</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.0634356095711</v>
+        <v>9.935108528092123</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.69201959913642</v>
+        <v>10.35395419218923</v>
       </c>
       <c r="C20">
-        <v>11.03973478232197</v>
+        <v>6.386951243059115</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>36.26152409979973</v>
+        <v>19.57434680472517</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>30.11524401032413</v>
+        <v>31.07357406239926</v>
       </c>
       <c r="H20">
-        <v>9.679093478999631</v>
+        <v>14.58423660250364</v>
       </c>
       <c r="I20">
-        <v>14.22959325376001</v>
+        <v>20.87559329033195</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.34048375400911</v>
+        <v>10.0275529258282</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.71818224000952</v>
+        <v>10.76710348626671</v>
       </c>
       <c r="C21">
-        <v>11.73963953831905</v>
+        <v>6.726921968992042</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>38.82918720833349</v>
+        <v>20.76706158673494</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>31.36600591954609</v>
+        <v>31.15692018205038</v>
       </c>
       <c r="H21">
-        <v>9.707048068969884</v>
+        <v>14.52990059915311</v>
       </c>
       <c r="I21">
-        <v>14.20591670487207</v>
+        <v>20.77482450074913</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.24486695414415</v>
+        <v>10.33399434290955</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.36495818446658</v>
+        <v>11.02984725386046</v>
       </c>
       <c r="C22">
-        <v>12.18374620187404</v>
+        <v>6.939542126837744</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>40.47026299125015</v>
+        <v>21.51172955615892</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>32.23341137531094</v>
+        <v>31.22374585163042</v>
       </c>
       <c r="H22">
-        <v>9.740814213660975</v>
+        <v>14.49729789179474</v>
       </c>
       <c r="I22">
-        <v>14.21912363302846</v>
+        <v>20.71383373125906</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.81668372886256</v>
+        <v>10.53083263379392</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.02190944120786</v>
+        <v>10.89030492160418</v>
       </c>
       <c r="C23">
-        <v>11.94789686765744</v>
+        <v>6.826939379452428</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>39.59754101864298</v>
+        <v>21.11746296831373</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>31.76578564091625</v>
+        <v>31.18694843475225</v>
       </c>
       <c r="H23">
-        <v>9.721294407271163</v>
+        <v>14.51443137223988</v>
       </c>
       <c r="I23">
-        <v>14.20928502719102</v>
+        <v>20.74593804018281</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.51322268866204</v>
+        <v>10.42611184643053</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.67483641617402</v>
+        <v>10.34708422061039</v>
       </c>
       <c r="C24">
-        <v>11.02806183013068</v>
+        <v>6.381233302500677</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>36.21888133770017</v>
+        <v>19.55426183114713</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>30.09562231512144</v>
+        <v>31.07242005705047</v>
       </c>
       <c r="H24">
-        <v>9.678880691630361</v>
+        <v>14.58517357775971</v>
       </c>
       <c r="I24">
-        <v>14.23042836254998</v>
+        <v>20.87732197831225</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.32537023126775</v>
+        <v>10.02249106618323</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.11587450839154</v>
+        <v>9.732566979830763</v>
       </c>
       <c r="C25">
-        <v>9.975072006358369</v>
+        <v>5.859538225752008</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>32.39393314790888</v>
+        <v>17.72607729076346</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>28.49888337806338</v>
+        <v>31.00171396805856</v>
       </c>
       <c r="H25">
-        <v>9.691961656037886</v>
+        <v>14.67386653903453</v>
       </c>
       <c r="I25">
-        <v>14.36052458095396</v>
+        <v>21.03971427193897</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.95857317770842</v>
+        <v>9.57462517921706</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_119/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_119/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.258916175188528</v>
+        <v>13.87351010544124</v>
       </c>
       <c r="C2">
-        <v>5.440462225162122</v>
+        <v>9.143991750992972</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.4334201268971</v>
+        <v>29.40150030322596</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>30.99461872526152</v>
+        <v>27.48843520149796</v>
       </c>
       <c r="H2">
-        <v>14.74971678999694</v>
+        <v>9.744274631976364</v>
       </c>
       <c r="I2">
-        <v>21.17683375297929</v>
+        <v>14.53246139060337</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.236828046466716</v>
+        <v>12.87606953709767</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.92679331772303</v>
+        <v>12.97119233212126</v>
       </c>
       <c r="C3">
-        <v>5.134884828657177</v>
+        <v>8.544569894662638</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.50512914951802</v>
+        <v>27.25468545543864</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>31.0175067838662</v>
+        <v>26.90061324922931</v>
       </c>
       <c r="H3">
-        <v>14.80764593051684</v>
+        <v>9.802708853460567</v>
       </c>
       <c r="I3">
-        <v>21.28059472904867</v>
+        <v>14.68919623622799</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.004434903847605</v>
+        <v>12.09410422760812</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.718203778278932</v>
+        <v>12.38702280180926</v>
       </c>
       <c r="C4">
-        <v>4.936747720004851</v>
+        <v>8.158302262679683</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.91084546013573</v>
+        <v>25.87530481230596</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>31.04507282986189</v>
+        <v>26.58513762204948</v>
       </c>
       <c r="H4">
-        <v>14.84641504118384</v>
+        <v>9.848806333409641</v>
       </c>
       <c r="I4">
-        <v>21.34961050321206</v>
+        <v>14.80307863460417</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.860603488149579</v>
+        <v>11.58999611398382</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.632167013351271</v>
+        <v>12.14134612070892</v>
       </c>
       <c r="C5">
-        <v>4.853387736614263</v>
+        <v>7.996270144974902</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.66282873928581</v>
+        <v>25.29744253974754</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>31.059679292841</v>
+        <v>26.46760783383484</v>
       </c>
       <c r="H5">
-        <v>14.86301583165411</v>
+        <v>9.870004406812097</v>
       </c>
       <c r="I5">
-        <v>21.37906361064209</v>
+        <v>14.85362220413916</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.801794795587121</v>
+        <v>11.37853805050304</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.617822463206073</v>
+        <v>12.1000902371666</v>
       </c>
       <c r="C6">
-        <v>4.839388666147411</v>
+        <v>7.969084432891573</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.62130193024104</v>
+        <v>25.20052748890246</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>31.06230762341697</v>
+        <v>26.44874558287214</v>
       </c>
       <c r="H6">
-        <v>14.86582074399073</v>
+        <v>9.873665662754133</v>
       </c>
       <c r="I6">
-        <v>21.3840343579081</v>
+        <v>14.86225630516994</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.792020532492135</v>
+        <v>11.34306175155881</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.717047454355546</v>
+        <v>12.38374043445805</v>
       </c>
       <c r="C7">
-        <v>4.935634057496239</v>
+        <v>8.156135816991981</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.90752387342068</v>
+        <v>25.86757580010217</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>31.0452561955862</v>
+        <v>26.58350848212706</v>
       </c>
       <c r="H7">
-        <v>14.8466356813557</v>
+        <v>9.849082648319039</v>
       </c>
       <c r="I7">
-        <v>21.3500023461065</v>
+        <v>14.80374392065499</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.859811045354915</v>
+        <v>11.58716871896269</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.145447283299962</v>
+        <v>13.56861776591236</v>
       </c>
       <c r="C8">
-        <v>5.337294188863268</v>
+        <v>8.941063452684816</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.11853800994067</v>
+        <v>28.67376325057854</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>30.99969203256501</v>
+        <v>27.27609599735368</v>
       </c>
       <c r="H8">
-        <v>14.76902489560895</v>
+        <v>9.76220484917074</v>
       </c>
       <c r="I8">
-        <v>21.21150584602047</v>
+        <v>14.58265243084869</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.156988893202399</v>
+        <v>12.61141878797157</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.943107946325384</v>
+        <v>15.65548591602463</v>
       </c>
       <c r="C9">
-        <v>6.040724438320705</v>
+        <v>10.33822610832603</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.35640402472106</v>
+        <v>33.70844688681014</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>31.01850795970317</v>
+        <v>29.01033636429886</v>
       </c>
       <c r="H9">
-        <v>14.64234479719333</v>
+        <v>9.680416643850155</v>
       </c>
       <c r="I9">
-        <v>20.98227052661071</v>
+        <v>14.30384389098151</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.726930725718466</v>
+        <v>14.43066200364104</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.49691408335786</v>
+        <v>17.04862210445898</v>
       </c>
       <c r="C10">
-        <v>6.505436048243415</v>
+        <v>11.28232708788908</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>19.99034357474723</v>
+        <v>37.14904729242959</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>31.09933297816438</v>
+        <v>30.53231984893374</v>
       </c>
       <c r="H10">
-        <v>14.5649927336569</v>
+        <v>9.685371456499944</v>
       </c>
       <c r="I10">
-        <v>20.84002347913778</v>
+        <v>14.21544243202702</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.13314365927513</v>
+        <v>15.65436343232462</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.74074820632179</v>
+        <v>17.65309210880391</v>
       </c>
       <c r="C11">
-        <v>6.70544981628128</v>
+        <v>11.69507591125418</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.69180957737874</v>
+        <v>38.66504090880215</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>31.15079974870119</v>
+        <v>31.28207941776387</v>
       </c>
       <c r="H11">
-        <v>14.53325227682818</v>
+        <v>9.704359238327919</v>
       </c>
       <c r="I11">
-        <v>20.78107120348628</v>
+        <v>14.20583241328679</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.31433099398112</v>
+        <v>16.18739663201461</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.83184017971648</v>
+        <v>17.87788496029386</v>
       </c>
       <c r="C12">
-        <v>6.779548876126569</v>
+        <v>11.84907880452953</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>20.95145958777231</v>
+        <v>39.2326970575167</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>31.17240863443853</v>
+        <v>31.57454127214652</v>
       </c>
       <c r="H12">
-        <v>14.52173168712813</v>
+        <v>9.71418789601138</v>
       </c>
       <c r="I12">
-        <v>20.75958178901806</v>
+        <v>14.20707229084224</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.38235741705107</v>
+        <v>16.38593321275942</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.81227831099759</v>
+        <v>17.8296526768474</v>
       </c>
       <c r="C13">
-        <v>6.763663386685812</v>
+        <v>11.81601174351743</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>20.89580473411704</v>
+        <v>39.11071629671215</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>31.16766045693994</v>
+        <v>31.51116946629981</v>
       </c>
       <c r="H13">
-        <v>14.52419061718883</v>
+        <v>9.711949933799545</v>
       </c>
       <c r="I13">
-        <v>20.76417269496173</v>
+        <v>14.20658034352384</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.36773375561107</v>
+        <v>16.34332052905638</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.74826771903131</v>
+        <v>17.6716676248756</v>
       </c>
       <c r="C14">
-        <v>6.711578913023986</v>
+        <v>11.70779115971805</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20.71329079345365</v>
+        <v>38.71186691083091</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>31.15253502687822</v>
+        <v>31.30596743778694</v>
       </c>
       <c r="H14">
-        <v>14.5322944558883</v>
+        <v>9.705113592543526</v>
       </c>
       <c r="I14">
-        <v>20.7792864923623</v>
+        <v>14.20583379441004</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.31993966545288</v>
+        <v>16.20379616752338</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.70889537993276</v>
+        <v>17.57436565578289</v>
       </c>
       <c r="C15">
-        <v>6.679461759896875</v>
+        <v>11.64120740498535</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.60071797270846</v>
+        <v>38.46674512744697</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>31.14354639530995</v>
+        <v>31.18139701371356</v>
       </c>
       <c r="H15">
-        <v>14.53732334576613</v>
+        <v>9.701276853738229</v>
       </c>
       <c r="I15">
-        <v>20.78865301137028</v>
+        <v>14.2060265865505</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.29058627611805</v>
+        <v>16.11790506900259</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.48080910347944</v>
+        <v>17.00853799683902</v>
       </c>
       <c r="C16">
-        <v>6.49213512503735</v>
+        <v>11.25502538339904</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>19.94366247413125</v>
+        <v>37.04903816625718</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>31.09626587577805</v>
+        <v>30.48450063108443</v>
       </c>
       <c r="H16">
-        <v>14.5671366827049</v>
+        <v>9.684486820354898</v>
       </c>
       <c r="I16">
-        <v>20.84399256163093</v>
+        <v>14.21672651239222</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.12122428477579</v>
+        <v>15.61905995302866</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.33875303900493</v>
+        <v>16.65399243251621</v>
       </c>
       <c r="C17">
-        <v>6.374296136719682</v>
+        <v>11.0139040306695</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.52989296775868</v>
+        <v>36.16716871210077</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>31.07103100399868</v>
+        <v>30.0718790953815</v>
       </c>
       <c r="H17">
-        <v>14.58631136658815</v>
+        <v>9.678633515921256</v>
       </c>
       <c r="I17">
-        <v>20.87942076848974</v>
+        <v>14.23146001456675</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.01635411209758</v>
+        <v>15.30703821006039</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.25628823512803</v>
+        <v>16.44730486065618</v>
       </c>
       <c r="C18">
-        <v>6.305446684408095</v>
+        <v>10.8736355490724</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.28796526047643</v>
+        <v>35.65527074965586</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>31.05790002171323</v>
+        <v>29.83993509453977</v>
       </c>
       <c r="H18">
-        <v>14.59766443629974</v>
+        <v>9.67682722413749</v>
       </c>
       <c r="I18">
-        <v>20.90033956952372</v>
+        <v>14.24278452191626</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.955700300529628</v>
+        <v>15.12534077460188</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.22823945917488</v>
+        <v>16.37684663201428</v>
       </c>
       <c r="C19">
-        <v>6.281951573523608</v>
+        <v>10.82586827694373</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.20537522934778</v>
+        <v>35.48113034201543</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>31.05369146261555</v>
+        <v>29.76231923032255</v>
       </c>
       <c r="H19">
-        <v>14.60156399468826</v>
+        <v>9.676476787505806</v>
       </c>
       <c r="I19">
-        <v>20.90751510353936</v>
+        <v>14.24709423567429</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.935108528092123</v>
+        <v>15.06343560957107</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.35395419218923</v>
+        <v>16.69201959913645</v>
       </c>
       <c r="C20">
-        <v>6.386951243059115</v>
+        <v>11.03973478232204</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.57434680472517</v>
+        <v>36.26152409979972</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>31.07357406239926</v>
+        <v>30.11524401032425</v>
       </c>
       <c r="H20">
-        <v>14.58423660250364</v>
+        <v>9.679093478999686</v>
       </c>
       <c r="I20">
-        <v>20.87559329033195</v>
+        <v>14.22959325376008</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.0275529258282</v>
+        <v>15.34048375400911</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.76710348626671</v>
+        <v>17.71818224000944</v>
       </c>
       <c r="C21">
-        <v>6.726921968992042</v>
+        <v>11.73963953831941</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>20.76706158673494</v>
+        <v>38.8291872083335</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>31.15692018205038</v>
+        <v>31.36600591954632</v>
       </c>
       <c r="H21">
-        <v>14.52990059915311</v>
+        <v>9.707048068969822</v>
       </c>
       <c r="I21">
-        <v>20.77482450074913</v>
+        <v>14.2059167048721</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.33399434290955</v>
+        <v>16.24486695414419</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.02984725386046</v>
+        <v>18.36495818446656</v>
       </c>
       <c r="C22">
-        <v>6.939542126837744</v>
+        <v>12.18374620187406</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.51172955615892</v>
+        <v>40.47026299125006</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>31.22374585163042</v>
+        <v>32.23341137531107</v>
       </c>
       <c r="H22">
-        <v>14.49729789179474</v>
+        <v>9.740814213661009</v>
       </c>
       <c r="I22">
-        <v>20.71383373125906</v>
+        <v>14.21912363302854</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.53083263379392</v>
+        <v>16.81668372886257</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.89030492160418</v>
+        <v>18.0219094412078</v>
       </c>
       <c r="C23">
-        <v>6.826939379452428</v>
+        <v>11.94789686765742</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.11746296831373</v>
+        <v>39.59754101864291</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>31.18694843475225</v>
+        <v>31.76578564091625</v>
       </c>
       <c r="H23">
-        <v>14.51443137223988</v>
+        <v>9.721294407271122</v>
       </c>
       <c r="I23">
-        <v>20.74593804018281</v>
+        <v>14.20928502719103</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.42611184643053</v>
+        <v>16.51322268866199</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.34708422061039</v>
+        <v>16.67483641617396</v>
       </c>
       <c r="C24">
-        <v>6.381233302500677</v>
+        <v>11.0280618301305</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.55426183114713</v>
+        <v>36.21888133770022</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>31.07242005705047</v>
+        <v>30.09562231512155</v>
       </c>
       <c r="H24">
-        <v>14.58517357775971</v>
+        <v>9.678880691630393</v>
       </c>
       <c r="I24">
-        <v>20.87732197831225</v>
+        <v>14.2304283625501</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.02249106618323</v>
+        <v>15.32537023126764</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.732566979830763</v>
+        <v>15.11587450839162</v>
       </c>
       <c r="C25">
-        <v>5.859538225752008</v>
+        <v>9.975072006358447</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.72607729076346</v>
+        <v>32.39393314790897</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>31.00171396805856</v>
+        <v>28.49888337806302</v>
       </c>
       <c r="H25">
-        <v>14.67386653903453</v>
+        <v>9.691961656037792</v>
       </c>
       <c r="I25">
-        <v>21.03971427193897</v>
+        <v>14.36052458095379</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.57462517921706</v>
+        <v>13.9585731777085</v>
       </c>
       <c r="L25">
         <v>0</v>
